--- a/data/trans_bre/P20_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20_3_R-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -586,17 +586,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,89</t>
+          <t>10,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>69,15%</t>
+          <t>69,12%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>40,41%</t>
+          <t>45,59%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,94; 30,34</t>
+          <t>9,0; 31,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 20,42</t>
+          <t>0,71; 21,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,02; 132,81</t>
+          <t>25,32; 128,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 105,52</t>
+          <t>2,53; 119,89</t>
         </is>
       </c>
     </row>
@@ -646,17 +646,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,55</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>58,13%</t>
+          <t>58,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>34,12%</t>
+          <t>26,17%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 21,55</t>
+          <t>0,47; 21,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 16,45</t>
+          <t>-7,7; 15,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 145,53</t>
+          <t>0,3; 142,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,73; 122,05</t>
+          <t>-36,16; 112,07</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,4</t>
+          <t>14,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>60,93%</t>
+          <t>60,89%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>58,67%</t>
+          <t>81,02%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,33; 18,46</t>
+          <t>4,73; 19,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 19,56</t>
+          <t>6,46; 21,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,36; 118,2</t>
+          <t>19,41; 124,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 135,27</t>
+          <t>29,67; 151,41</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>16,3%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 10,34</t>
+          <t>-2,83; 9,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 10,07</t>
+          <t>-5,07; 10,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 69,24</t>
+          <t>-13,44; 66,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,54; 61,35</t>
+          <t>-20,67; 67,13</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,98</t>
+          <t>9,47</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>74,53%</t>
+          <t>77,34%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,97; 21,99</t>
+          <t>8,14; 23,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,1; 16,18</t>
+          <t>2,84; 17,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>46,46; 210,84</t>
+          <t>43,95; 221,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,33; 186,37</t>
+          <t>18,53; 195,97</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,18</t>
+          <t>9,33</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,15</t>
+          <t>12,72</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>57,82%</t>
+          <t>59,58%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>91,45%</t>
+          <t>105,0%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,25; 16,85</t>
+          <t>0,09; 16,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 19,71</t>
+          <t>1,29; 21,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,39; 148,8</t>
+          <t>-1,07; 141,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 258,52</t>
+          <t>-5,54; 279,45</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,81</t>
+          <t>10,8</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,23</t>
+          <t>9,1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>55,93%</t>
+          <t>55,99%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>45,46%</t>
+          <t>50,99%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,66; 13,81</t>
+          <t>7,45; 13,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,47; 11,94</t>
+          <t>4,94; 12,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>35,56; 78,87</t>
+          <t>35,44; 80,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>21,46; 75,74</t>
+          <t>23,97; 78,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20_3_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>19,78</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10,75</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>69,12%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>45,59%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>19.77725111583425</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>9.86086486383031</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.6911703546884459</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.4018844646440677</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>9,0; 31,23</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,71; 21,75</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>25,32; 128,34</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>2,53; 119,89</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>8.999509573468993</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.6759181933291164</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>0.253215738371606</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.04969657959907315</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>31.23195266883227</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>20.58408173463349</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>1.283428297286373</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.061131462990292</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>11,92</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,31</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>58,15%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>26,17%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,47; 21,05</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,7; 15,87</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,3; 142,25</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-36,16; 112,07</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>11.91781012045202</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5.880268249851611</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.5815355240478148</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.2968983790397342</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>11,72</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>14,27</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>60,89%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>81,02%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.4723353166097527</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.221141681930793</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.003004743026689591</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.2582585264383008</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>4,73; 19,58</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>6,46; 21,18</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>19,41; 124,38</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>29,67; 151,41</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>21.04652208155782</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>16.03477899270976</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.422494678940831</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.22935648337407</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,37</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,32</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>18,25%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>16,3%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>11.71778356619551</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>14.24483182737394</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.6089057045386205</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.8230488603953958</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,83; 9,99</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,07; 10,55</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-13,44; 66,47</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-20,67; 67,13</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>4.726258245149975</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>6.134966940718541</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0.194063463184923</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0.2665133518958512</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>19.58417104783032</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>21.50941699874452</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>1.243765219165041</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.562815553459471</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>15,02</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>9,47</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>110,56%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>77,34%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>8,14; 23,13</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,84; 17,16</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>43,95; 221,37</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>18,53; 195,97</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>3.495877657581903</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.674303015057209</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.1893167709650747</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.1820355241927762</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>9,33</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>12,72</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>59,58%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>105,0%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.205166143453843</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.460939334114827</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1534302343324041</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.1901778809790967</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,09; 16,28</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,29; 21,3</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,07; 141,29</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-5,54; 279,45</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.878247881649594</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>11.04045024774506</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.6170241455162173</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.7077205960321281</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>10,8</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>9,1</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>55,99%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>50,99%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>15.02488286991213</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>9.568081363425723</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>1.105627952718485</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.800141398564882</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>7,45; 13,98</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>4,94; 12,54</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>35,44; 80,22</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>23,97; 78,76</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>8.138592961873506</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>2.95727296313209</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0.4394869997046157</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>0.1823564580284311</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>23.13393454068533</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>16.99129025941654</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>2.213713735014196</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>2.001604342423526</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>9.185713427685297</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>11.29934845855588</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.5784707106656073</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.9894211758849278</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>0.2055301491644302</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.02975051875434571</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.01436537027068352</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.1001985741877995</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>16.34335061331867</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>18.99039638526828</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>1.328352228638394</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>2.666077183516232</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>10.81123522442658</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>8.873090787609847</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.5592229728878554</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.5027795510106327</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>7.440313954828383</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>5.08304842931433</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>0.3569155564081831</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>0.2490598958568651</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>14.34953653358342</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>12.44495187889993</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.8268305215346125</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.7991042027119057</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
